--- a/Mifos Automation Excels/Client/247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,23 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
     <sheet name="Summary" sheetId="13" r:id="rId2"/>
     <sheet name="Repayment Schedule" sheetId="17" r:id="rId3"/>
-    <sheet name="Transactions" sheetId="18" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>newloan</t>
   </si>
@@ -31,21 +27,12 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
     <t>approveddate</t>
   </si>
   <si>
-    <t>Disbursement</t>
-  </si>
-  <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -118,21 +105,6 @@
     <t>Late</t>
   </si>
   <si>
-    <t>Transaction Date</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Loan Balance</t>
-  </si>
-  <si>
     <t>247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME</t>
   </si>
   <si>
@@ -140,6 +112,33 @@
   </si>
   <si>
     <t>actualdisbursedate</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
   </si>
 </sst>
 </file>
@@ -205,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -226,9 +225,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -549,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -563,23 +559,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -587,7 +583,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>42005</v>
@@ -595,7 +591,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <v>10000</v>
@@ -603,23 +599,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
+      <c r="A8" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
@@ -627,23 +623,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -651,18 +647,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3">
-        <v>42005</v>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -691,22 +703,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -723,7 +735,7 @@
       <c r="E2" s="5">
         <v>10000</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>1576.98</v>
       </c>
     </row>
@@ -788,29 +800,29 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -820,10 +832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -846,52 +858,52 @@
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="L1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -916,9 +928,9 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -933,7 +945,7 @@
       <c r="F3" s="6">
         <v>788.49</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>9211.51</v>
       </c>
       <c r="H3" s="6">
@@ -957,11 +969,11 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
-      <c r="O3" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -976,7 +988,7 @@
       <c r="F4" s="6">
         <v>788.49</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>8423.02</v>
       </c>
       <c r="H4" s="6">
@@ -1000,11 +1012,11 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1019,7 +1031,7 @@
       <c r="F5" s="6">
         <v>788.49</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>7634.53</v>
       </c>
       <c r="H5" s="6">
@@ -1043,11 +1055,11 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1062,7 +1074,7 @@
       <c r="F6" s="6">
         <v>812.14</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>6822.39</v>
       </c>
       <c r="H6" s="6">
@@ -1086,11 +1098,11 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1105,7 +1117,7 @@
       <c r="F7" s="6">
         <v>820.27</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>6002.12</v>
       </c>
       <c r="H7" s="6">
@@ -1129,11 +1141,11 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1148,7 +1160,7 @@
       <c r="F8" s="6">
         <v>828.47</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>5173.6499999999996</v>
       </c>
       <c r="H8" s="6">
@@ -1172,11 +1184,11 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
-      <c r="O8" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1191,7 +1203,7 @@
       <c r="F9" s="6">
         <v>836.75</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>4336.8999999999996</v>
       </c>
       <c r="H9" s="6">
@@ -1215,11 +1227,11 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="O9" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1234,7 +1246,7 @@
       <c r="F10" s="6">
         <v>845.12</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>3491.78</v>
       </c>
       <c r="H10" s="6">
@@ -1258,11 +1270,11 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="O10" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1277,7 +1289,7 @@
       <c r="F11" s="6">
         <v>853.57</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>2638.21</v>
       </c>
       <c r="H11" s="6">
@@ -1301,11 +1313,11 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="O11" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1320,7 +1332,7 @@
       <c r="F12" s="6">
         <v>862.11</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1776.1</v>
       </c>
       <c r="H12" s="6">
@@ -1344,11 +1356,11 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1387,11 +1399,11 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="O13" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1430,85 +1442,8 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <v>914.42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>42005</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -236,9 +236,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -685,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -799,30 +796,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,7 +820,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -859,47 +844,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -144,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -251,6 +256,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -298,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,9 +339,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,10 +859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -838,12 +880,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -881,14 +924,15 @@
       <c r="M1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -913,9 +957,10 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -951,14 +996,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -994,14 +1040,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1037,14 +1084,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1080,14 +1128,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1123,14 +1172,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1166,14 +1216,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1209,14 +1260,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1252,14 +1304,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1295,14 +1348,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1338,14 +1392,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1381,14 +1436,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1424,10 +1480,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>914.42</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/247-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -149,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -209,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -234,14 +229,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,26 +328,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,23 +363,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,7 +608,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
@@ -724,10 +679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,7 +695,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -760,7 +715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>10000</v>
       </c>
@@ -778,7 +733,7 @@
         <v>1576.98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>687.81</v>
       </c>
@@ -798,7 +753,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -818,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -837,19 +792,6 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -887,48 +829,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
